--- a/public/excelop/template/booking.xlsx
+++ b/public/excelop/template/booking.xlsx
@@ -1,42 +1,257 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr2">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="C02239E1FF9546F277B845AC9B08A0FC2F923FD4"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="15255" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$AI$4</definedName>
   </definedNames>
-  <calcPr calcId="171026" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+  <si>
+    <t>销售填写</t>
+  </si>
+  <si>
+    <t>下家信息</t>
+  </si>
+  <si>
+    <t>上家信息</t>
+  </si>
+  <si>
+    <t>结团信息</t>
+  </si>
+  <si>
+    <t>订单编号</t>
+  </si>
+  <si>
+    <t>销售人</t>
+  </si>
+  <si>
+    <t>操作人</t>
+  </si>
+  <si>
+    <t>出发日期</t>
+  </si>
+  <si>
+    <t>邮轮名称</t>
+  </si>
+  <si>
+    <t>天数</t>
+  </si>
+  <si>
+    <t>航线</t>
+  </si>
+  <si>
+    <t>房型数量</t>
+  </si>
+  <si>
+    <t>总人数</t>
+  </si>
+  <si>
+    <t>订单利润</t>
+  </si>
+  <si>
+    <t>订单利润率</t>
+  </si>
+  <si>
+    <t>订单说明</t>
+  </si>
+  <si>
+    <t>采购人类型</t>
+  </si>
+  <si>
+    <t>采购人公司</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>联系人电话</t>
+  </si>
+  <si>
+    <t>采购金额</t>
+  </si>
+  <si>
+    <t>收款时限</t>
+  </si>
+  <si>
+    <t>提供合同</t>
+  </si>
+  <si>
+    <t>合同编号</t>
+  </si>
+  <si>
+    <t>提供对方发票</t>
+  </si>
+  <si>
+    <t>发票抬头/金额</t>
+  </si>
+  <si>
+    <t>购买保险</t>
+  </si>
+  <si>
+    <t>保险名称/金额</t>
+  </si>
+  <si>
+    <t>供应商公司</t>
+  </si>
+  <si>
+    <t>联系姓名</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>总金额</t>
+  </si>
+  <si>
+    <t>付款时限</t>
+  </si>
+  <si>
+    <t>利润核对</t>
+  </si>
+  <si>
+    <t>发票情况</t>
+  </si>
+  <si>
+    <t>结团月份</t>
+  </si>
+  <si>
+    <t>收付方非华夏是否结算清楚</t>
+  </si>
+  <si>
+    <t>其他说明</t>
+  </si>
   <si>
     <t>&lt;%=rs1.bookingno%&gt;</t>
   </si>
   <si>
+    <t>&lt;%=rs1.saler%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.operator%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.startDate%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.ShipName%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.numDay%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.txtLine%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.txtRoom%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.numPerson%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.profit%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.profitRate%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.remark%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.buy_type%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.buy_company%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.buy_name%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.buy_tel%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.buy_total%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.buy_deadline%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.buy_contract%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.buy_contractNo%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.buy_invoice%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.buy_invoiceHead%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.buy_insure%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.buy_insureHead%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.supply_company%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.supply_name%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.supply_tel%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.supply_total%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.supply_deadline%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.fin_change%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.fin_invoice%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.fin_month%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.fin_nohx%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%=rs1.fin_remark%&gt;</t>
+  </si>
+  <si>
     <t>&lt;%forRBegin rs1,i in _data_%&gt;</t>
   </si>
   <si>
     <t>&lt;%forREnd(1)%&gt;</t>
-  </si>
-  <si>
-    <t>订单编号</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="63"/>
@@ -49,8 +264,159 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -63,25 +429,198 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -100,40 +639,408 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:AI4">
+  <tableColumns count="35">
+    <tableColumn id="1" name="订单编号"/>
+    <tableColumn id="2" name="销售人"/>
+    <tableColumn id="3" name="操作人"/>
+    <tableColumn id="4" name="出发日期"/>
+    <tableColumn id="5" name="邮轮名称"/>
+    <tableColumn id="6" name="天数"/>
+    <tableColumn id="7" name="航线"/>
+    <tableColumn id="8" name="房型数量"/>
+    <tableColumn id="9" name="总人数"/>
+    <tableColumn id="10" name="订单利润"/>
+    <tableColumn id="11" name="订单利润率"/>
+    <tableColumn id="12" name="订单说明"/>
+    <tableColumn id="13" name="采购人类型"/>
+    <tableColumn id="14" name="采购人公司"/>
+    <tableColumn id="15" name="联系人"/>
+    <tableColumn id="16" name="联系人电话"/>
+    <tableColumn id="17" name="采购金额"/>
+    <tableColumn id="18" name="收款时限"/>
+    <tableColumn id="19" name="提供合同"/>
+    <tableColumn id="20" name="合同编号"/>
+    <tableColumn id="21" name="提供对方发票"/>
+    <tableColumn id="22" name="发票抬头/金额"/>
+    <tableColumn id="23" name="购买保险"/>
+    <tableColumn id="24" name="保险名称/金额"/>
+    <tableColumn id="25" name="供应商公司"/>
+    <tableColumn id="26" name="联系姓名"/>
+    <tableColumn id="27" name="联系电话"/>
+    <tableColumn id="28" name="总金额"/>
+    <tableColumn id="29" name="付款时限"/>
+    <tableColumn id="30" name="利润核对"/>
+    <tableColumn id="31" name="发票情况"/>
+    <tableColumn id="32" name="结团月份"/>
+    <tableColumn id="33" name="收付方非华夏是否结算清楚"/>
+    <tableColumn id="34" name="其他说明"/>
+    <tableColumn id="35" name="Column35"/>
+  </tableColumns>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,39 +1371,292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="34" width="19.858407079646" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.1">
+    <row r="2" ht="16.1" spans="1:34">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.1">
-      <c r="B3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:35">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="35:35">
+      <c r="AI4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <autoFilter ref="A2:AI4"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="M1:X1"/>
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>